--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_6.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999853849072967</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990575712678389</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999730107869024</v>
       </c>
       <c r="E2" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999859237995865</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999809895796168</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.364254751010201e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008797158536321514</v>
       </c>
       <c r="I2" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>3.715705189446978e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003750529194454543</v>
+        <v>1.606401127166991e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002008246096048732</v>
+        <v>2.661053158306984e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002752172212786719</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003693581934938226</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000020633072052</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003850825364677203</v>
       </c>
       <c r="P2" t="n">
-        <v>100.40878827957</v>
+        <v>104.4046343107701</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.3826970991662</v>
+        <v>154.3785431303664</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_22</t>
+          <t>model_22_6_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999851688602647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990548852225709</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999696686273332</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999836249359889</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999784089078876</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.384421793110532e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008822231589859904</v>
       </c>
       <c r="I3" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>4.175832708183253e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003750529194454543</v>
+        <v>1.868751546016827e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002008246096048732</v>
+        <v>3.02229212710004e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002773260495426857</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003720781897814668</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000020938079626</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003879183286284981</v>
       </c>
       <c r="P3" t="n">
-        <v>100.40878827957</v>
+        <v>104.3752857807952</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.3826970991662</v>
+        <v>154.3491946003915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_21</t>
+          <t>model_22_6_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999848220334678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990522202171462</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.999966500110541</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999814062173549</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999759462981987</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.416796552202344e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008847108245697741</v>
       </c>
       <c r="I4" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>4.612054180999871e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003750529194454543</v>
+        <v>2.121955678521353e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002008246096048732</v>
+        <v>3.367004929760612e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002793762622452289</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003764035802436454</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000021427717457</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003924278599174442</v>
       </c>
       <c r="P4" t="n">
-        <v>100.40878827957</v>
+        <v>104.3290541819944</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.3826970991662</v>
+        <v>154.3029630015906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_20</t>
+          <t>model_22_6_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999842802726802</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990493409672863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999631622924822</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999791907553327</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999734017592937</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.467367543679061e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000887398477929599</v>
       </c>
       <c r="I5" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>5.071583987883474e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0003750529194454543</v>
+        <v>2.374788160656015e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002008246096048732</v>
+        <v>3.723186074269744e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002818335095329789</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003830623374437978</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000022192556216</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.003993700941971348</v>
       </c>
       <c r="P5" t="n">
-        <v>100.40878827957</v>
+        <v>104.2589109123354</v>
       </c>
       <c r="Q5" t="n">
-        <v>150.3826970991662</v>
+        <v>154.2328197319316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_19</t>
+          <t>model_22_6_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999836462172192</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990464557668421</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999598928473086</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999193032319626</v>
+        <v>0.999977060254149</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999709254773348</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.526553837768448e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008900916858984891</v>
       </c>
       <c r="I6" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>5.521700645757618e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0003750529194454543</v>
+        <v>2.617924760189933e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002008246096048732</v>
+        <v>4.069812702973776e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.00028437887034989</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003907113816832635</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000023087693338</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004073447740855789</v>
       </c>
       <c r="P6" t="n">
-        <v>100.40878827957</v>
+        <v>104.1798253272705</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.3826970991662</v>
+        <v>154.1537341468667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_18</t>
+          <t>model_22_6_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999829770089449</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990437059063633</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999568201829145</v>
       </c>
       <c r="E7" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999750430499353</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999685921499997</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.589021492694425e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008926585599505413</v>
       </c>
       <c r="I7" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>5.944725762975032e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0003750529194454543</v>
+        <v>2.848131707197302e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002008246096048732</v>
+        <v>4.396428735086167e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002867956435604512</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.003986253244206174</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00002403245796</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004155956297493818</v>
       </c>
       <c r="P7" t="n">
-        <v>100.40878827957</v>
+        <v>104.0996141031648</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.3826970991662</v>
+        <v>154.073522922761</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_17</t>
+          <t>model_22_6_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999822578730612</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990409911584137</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999538082600173</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999731270552841</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999663299503762</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.656149670798872e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008951926579978629</v>
       </c>
       <c r="I8" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>6.359388372782944e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0003750529194454543</v>
+        <v>3.066788438209086e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002008246096048732</v>
+        <v>4.713088405496014e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002892303249240499</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004069581883681507</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000025047708619</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00424283240966568</v>
       </c>
       <c r="P8" t="n">
-        <v>100.40878827957</v>
+        <v>104.0168600643482</v>
       </c>
       <c r="Q8" t="n">
-        <v>150.3826970991662</v>
+        <v>153.9907688839444</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_16</t>
+          <t>model_22_6_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999815330815209</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990383865957151</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999509576470983</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999713315927589</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999641962113529</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.72380577961748e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008976239029499322</v>
       </c>
       <c r="I9" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>6.751842838858692e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0003750529194454543</v>
+        <v>3.271689827752251e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002008246096048732</v>
+        <v>5.011766333305471e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002915716674716828</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004151874010151897</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000026070943735</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.0043286278823281</v>
       </c>
       <c r="P9" t="n">
-        <v>100.40878827957</v>
+        <v>103.9367819118188</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.3826970991662</v>
+        <v>153.910690731415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_15</t>
+          <t>model_22_6_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999807973400398</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990358950383029</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999482201034929</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999696310303038</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999621567611229</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.792484017349557e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008999496624274019</v>
       </c>
       <c r="I10" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>7.128730632660904e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0003750529194454543</v>
+        <v>3.46576105183503e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002008246096048732</v>
+        <v>5.297245842247967e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002938833216277706</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004233773750862884</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000027109637591</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004414014264556989</v>
       </c>
       <c r="P10" t="n">
-        <v>100.40878827957</v>
+        <v>103.8586461758405</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.3826970991662</v>
+        <v>153.8325549954368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_14</t>
+          <t>model_22_6_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999800565917973</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990334409582676</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.999945556554749</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999680502502845</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999602025272142</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.861629614274893e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009022404384187441</v>
       </c>
       <c r="I11" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>7.495431279114386e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0003750529194454543</v>
+        <v>3.646162490452436e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002008246096048732</v>
+        <v>5.570796884783411e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002961261025251632</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004314660605742811</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000028155399816</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004498344640308028</v>
       </c>
       <c r="P11" t="n">
-        <v>100.40878827957</v>
+        <v>103.7829464482438</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3826970991662</v>
+        <v>153.7568552678401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_13</t>
+          <t>model_22_6_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.999979347067156</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990311533505327</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999430819317048</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999665925860333</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999583913875961</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.927860625089141e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009043758198248933</v>
       </c>
       <c r="I12" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>7.836121822934564e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0003750529194454543</v>
+        <v>3.812513737756437e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002008246096048732</v>
+        <v>5.8243177803455e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0002981736088415346</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004390740968320883</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000029157081662</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004577663901429111</v>
       </c>
       <c r="P12" t="n">
-        <v>100.40878827957</v>
+        <v>103.7130291225729</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6869379421691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_23</t>
+          <t>model_22_6_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999786665400248</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990290087613133</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999407625608503</v>
       </c>
       <c r="E13" t="n">
-        <v>0.999193032319626</v>
+        <v>0.999965250171039</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999567035760506</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001005963946122808</v>
+        <v>1.991384845625234e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009063776997246482</v>
       </c>
       <c r="I13" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>8.155438221271363e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0003750529194454543</v>
+        <v>3.96571253407046e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002008246096048732</v>
+        <v>6.060575377670912e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.000300127130780385</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004462493524505368</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000030117825847</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004652471112478636</v>
       </c>
       <c r="P13" t="n">
-        <v>100.40878827957</v>
+        <v>103.6481903318747</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.3826970991662</v>
+        <v>153.6220991514709</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999780239211118</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990270215273245</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999386195077837</v>
       </c>
       <c r="E14" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999640132624289</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999551454803551</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.051370500376971e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000908232695423726</v>
       </c>
       <c r="I14" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>8.450480295000082e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003750529194454543</v>
+        <v>4.106870753413898e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002008246096048732</v>
+        <v>6.27867552420699e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003019055001184927</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004529205780682713</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000031025052548</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00472202344751486</v>
       </c>
       <c r="P14" t="n">
-        <v>100.40878827957</v>
+        <v>103.5888347168436</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3826970991662</v>
+        <v>153.5627435364399</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_10</t>
+          <t>model_22_6_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999774255142215</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990251934867199</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999366517137745</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999193032319626</v>
+        <v>0.999962887006954</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999537191206043</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.107229156878674e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009099390910863346</v>
       </c>
       <c r="I15" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>8.721393803495244e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0003750529194454543</v>
+        <v>4.235401039370083e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0002008246096048732</v>
+        <v>6.4783354498451e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003035463274344707</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004590456575198892</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000031869862275</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004785881815160216</v>
       </c>
       <c r="P15" t="n">
-        <v>100.40878827957</v>
+        <v>103.5351031525431</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.3826970991662</v>
+        <v>153.5090119721393</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_9</t>
+          <t>model_22_6_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999768618282229</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990235083237405</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999348319878167</v>
       </c>
       <c r="E16" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999618506753111</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.999952401346907</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.159846770554292e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009115121167575189</v>
       </c>
       <c r="I16" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>8.971922233512224e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0003750529194454543</v>
+        <v>4.353669057037062e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002008246096048732</v>
+        <v>6.662795645274643e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003050779158155978</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004647415163888731</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000032665654274</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004845265248891114</v>
       </c>
       <c r="P16" t="n">
-        <v>100.40878827957</v>
+        <v>103.4857763706974</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.3826970991662</v>
+        <v>153.4596851902936</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_8</t>
+          <t>model_22_6_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999763418881674</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990219687721551</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999331690231348</v>
       </c>
       <c r="E17" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999609088322761</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999511996232524</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.208380892463066e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009129492205839479</v>
       </c>
       <c r="I17" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>9.200868756561178e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003750529194454543</v>
+        <v>4.461153866059435e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002008246096048732</v>
+        <v>6.831011311310306e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003064493275225503</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004699341328806694</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000033399687293</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004899402018151615</v>
       </c>
       <c r="P17" t="n">
-        <v>100.40878827957</v>
+        <v>103.4413316915765</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3826970991662</v>
+        <v>153.4152405111728</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_7</t>
+          <t>model_22_6_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999758540387719</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990205339277983</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999316229181697</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999600470396396</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999500879990663</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.253919492127258e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009142885848086951</v>
       </c>
       <c r="I18" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>9.413726768449517e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0003750529194454543</v>
+        <v>4.559503180639825e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002008246096048732</v>
+        <v>6.986614974544671e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003077331027794693</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004747546200014548</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000034088415851</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004949659070524627</v>
       </c>
       <c r="P18" t="n">
-        <v>100.40878827957</v>
+        <v>103.4005095355381</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.3826970991662</v>
+        <v>153.3744183551343</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_6</t>
+          <t>model_22_6_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999753974569684</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990191987818691</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999301855618428</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999592613543816</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.999949060878257</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.296539399317142e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009155348849275316</v>
       </c>
       <c r="I19" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>9.611612951491973e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003750529194454543</v>
+        <v>4.649166985286473e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002008246096048732</v>
+        <v>7.130389968389222e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003089411294884457</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004792222239543092</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000034733001927</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.004996237061548053</v>
       </c>
       <c r="P19" t="n">
-        <v>100.40878827957</v>
+        <v>103.3630441681769</v>
       </c>
       <c r="Q19" t="n">
-        <v>150.3826970991662</v>
+        <v>153.3369529877732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_5</t>
+          <t>model_22_6_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999749694529777</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.999017966928172</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999288435153891</v>
       </c>
       <c r="E20" t="n">
-        <v>0.999193032319626</v>
+        <v>0.999958534902983</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999481047737658</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.336491693126347e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000916684766281587</v>
       </c>
       <c r="I20" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>9.796377470332825e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003750529194454543</v>
+        <v>4.732070916115976e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002008246096048732</v>
+        <v>7.2642241932244e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003100334342844509</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00483372702283274</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000035337242855</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005039508789389086</v>
       </c>
       <c r="P20" t="n">
-        <v>100.40878827957</v>
+        <v>103.3285498741638</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3826970991662</v>
+        <v>153.3024586937601</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_4</t>
+          <t>model_22_6_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999745911394289</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990168779453836</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999276694562731</v>
       </c>
       <c r="E21" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999578901119798</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999472645679083</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.371805602304079e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009177012839137061</v>
       </c>
       <c r="I21" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>9.958014548625368e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003750529194454543</v>
+        <v>4.805655616819191e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002008246096048732</v>
+        <v>7.381835082722279e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003109971175469445</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004870118686750949</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000035871332571</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005077449721781423</v>
       </c>
       <c r="P21" t="n">
-        <v>100.40878827957</v>
+        <v>103.2985478847541</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.3826970991662</v>
+        <v>153.2724567043503</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_3</t>
+          <t>model_22_6_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999742418874824</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990158833603963</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999265925860089</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999573077070714</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999464975873651</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.404406738471602e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009186296853422113</v>
       </c>
       <c r="I22" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>0.0001010627127676812</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003750529194454543</v>
+        <v>4.872120704973341e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0002008246096048732</v>
+        <v>7.489195990870729e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.000311858279087667</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004903475031517548</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000036364394143</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005112226115201889</v>
       </c>
       <c r="P22" t="n">
-        <v>100.40878827957</v>
+        <v>103.2712445404656</v>
       </c>
       <c r="Q22" t="n">
-        <v>150.3826970991662</v>
+        <v>153.2451533600619</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_2</t>
+          <t>model_22_6_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999739213763614</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990149797436793</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999256128701064</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999567729624268</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999457978123384</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.434325044732972e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000919473171883313</v>
       </c>
       <c r="I23" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>0.0001024115240316126</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003750529194454543</v>
+        <v>4.933146718704784e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0002008246096048732</v>
+        <v>7.587149560933023e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003126599794162566</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004933887964610639</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000036816880431</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005143933789820203</v>
       </c>
       <c r="P23" t="n">
-        <v>100.40878827957</v>
+        <v>103.246511871762</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3826970991662</v>
+        <v>153.2204206913583</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_1</t>
+          <t>model_22_6_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999736284552709</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990141561791271</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999247177942795</v>
       </c>
       <c r="E24" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999562859968313</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999451591371393</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.461667942753362e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009202419332423493</v>
       </c>
       <c r="I24" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>0.0001036438081604643</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003750529194454543</v>
+        <v>4.988720102043508e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002008246096048732</v>
+        <v>7.676550459044971e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003133880449840155</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00496151987071841</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000037230416088</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005172742043376912</v>
       </c>
       <c r="P24" t="n">
-        <v>100.40878827957</v>
+        <v>103.2241726385438</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.3826970991662</v>
+        <v>153.1980814581401</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_11</t>
+          <t>model_22_6_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999733657745747</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990134209564092</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.9999239209245976</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999558516534918</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999445902073949</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.486188032711656e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009209282313770689</v>
       </c>
       <c r="I25" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>0.0001047408882425716</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0003750529194454543</v>
+        <v>5.038288139563956e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0002008246096048732</v>
+        <v>7.75618848191056e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003140275047677992</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.004986168902786643</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000037601259424</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005198440435770822</v>
       </c>
       <c r="P25" t="n">
-        <v>100.40878827957</v>
+        <v>103.2043496761842</v>
       </c>
       <c r="Q25" t="n">
-        <v>150.3826970991662</v>
+        <v>153.1782584957805</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999731223255105</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.999012735629199</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999521053296543</v>
+        <v>0.99992317953712</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999193032319626</v>
+        <v>0.9999554585138219</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9997943304569754</v>
+        <v>0.9999440653582179</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.508912934239617e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.000921567954245407</v>
       </c>
       <c r="I26" t="n">
-        <v>2.659629976429214e-05</v>
+        <v>0.0001057615839138456</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003750529194454543</v>
+        <v>5.083153940711473e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002008246096048732</v>
+        <v>7.829656166048017e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0003146253591400016</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.005008905004329406</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000037944952221</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005222144460226478</v>
       </c>
       <c r="P26" t="n">
-        <v>100.40878827957</v>
+        <v>103.1861517991345</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3826970991662</v>
+        <v>153.1600606187307</v>
       </c>
     </row>
   </sheetData>
